--- a/Project-Estimation.xlsx
+++ b/Project-Estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>PROJECT PLAN</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Thiết lập dịch vụ</t>
   </si>
   <si>
-    <t>Thiết lập sản phẩm</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Tạo danh mục đặt lịch</t>
   </si>
   <si>
-    <t>Tạo danh mục sản phẩm</t>
-  </si>
-  <si>
     <t>Tạo danh mục dịch vụ</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t>Tạo các gói dịch vụ phù hợp với từng khách hàng như gói cao cấp, gói tiêu chuẩn, …</t>
   </si>
   <si>
-    <t>Tạo 1 list các loại sản phẩm cho khách hàng lựa chọn</t>
-  </si>
-  <si>
     <t>Tùy chọn các lựa chọn riêng cho mỗi khách hàng có nhu cầu</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>Danh mục cho khách hàng muốn đặt lịch click vào</t>
   </si>
   <si>
-    <t>Danh mục cho khách hàng muốn lựa chọn sản phẩm click vào</t>
-  </si>
-  <si>
     <t>Danh mục cho khách hàng muốn lựa chọn các dịch vụ click vào</t>
   </si>
   <si>
@@ -267,6 +255,9 @@
   </si>
   <si>
     <t>PetCare &amp; Salon Improvements</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện cho trang web</t>
   </si>
 </sst>
 </file>
@@ -640,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -736,25 +727,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,12 +742,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,7 +1087,7 @@
   <dimension ref="A4:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1099,37 +1096,37 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.6">
-      <c r="E4" s="38" t="s">
-        <v>79</v>
+      <c r="E4" s="36" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" s="34">
-        <f>SUM(Estimation!E7:E26)</f>
+        <f>SUM(Estimation!E8:E24)</f>
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1139,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2">
@@ -1322,7 +1319,7 @@
         <v>44109</v>
       </c>
       <c r="E12" s="14">
-        <v>44110</v>
+        <v>44116</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1338,7 +1335,7 @@
         <v>44109</v>
       </c>
       <c r="E13" s="14">
-        <v>44110</v>
+        <v>44116</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -1354,7 +1351,7 @@
         <v>44109</v>
       </c>
       <c r="E14" s="14">
-        <v>44110</v>
+        <v>44116</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -1370,7 +1367,7 @@
         <v>44109</v>
       </c>
       <c r="E15" s="14">
-        <v>44112</v>
+        <v>44116</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1387,314 +1384,304 @@
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="15"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="E18" s="14">
-        <v>44115</v>
-      </c>
-      <c r="H18" s="6"/>
+        <v>44131</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="E19" s="14">
-        <v>44115</v>
-      </c>
-      <c r="H19" s="6"/>
+        <v>44131</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="E20" s="14">
-        <v>44115</v>
-      </c>
-      <c r="H20" s="6"/>
+        <v>44131</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="E21" s="14">
-        <v>44118</v>
+        <v>44131</v>
       </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="28">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2">
+        <v>44117</v>
+      </c>
+      <c r="E22" s="14">
+        <v>44131</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2">
+        <v>44117</v>
+      </c>
+      <c r="E23" s="14">
+        <v>44131</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="15"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="15"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2">
+        <v>44132</v>
+      </c>
+      <c r="E26" s="14">
+        <v>44140</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
+        <v>2</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2">
+        <v>44132</v>
+      </c>
+      <c r="E27" s="14">
+        <v>44140</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="15"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="15"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="15"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="47"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50">
         <v>1</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2">
-        <v>44118</v>
-      </c>
-      <c r="E24" s="14">
-        <v>44121</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
+      <c r="B30" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52">
+        <v>44140</v>
+      </c>
+      <c r="E30" s="53">
+        <v>44147</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50">
         <v>2</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2">
-        <v>44118</v>
-      </c>
-      <c r="E25" s="14">
-        <v>44121</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="15"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="15"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
+      <c r="B31" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52">
+        <v>44140</v>
+      </c>
+      <c r="E31" s="53">
+        <v>44147</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50">
+        <v>4</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52">
+        <v>44140</v>
+      </c>
+      <c r="E32" s="53">
+        <v>44147</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="15"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="15"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2">
-        <v>44121</v>
-      </c>
-      <c r="E28" s="14">
-        <v>44126</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2">
-        <v>44121</v>
-      </c>
-      <c r="E29" s="14">
-        <v>44126</v>
-      </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2">
-        <v>44121</v>
-      </c>
-      <c r="E30" s="14">
-        <v>44126</v>
-      </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2">
-        <v>44121</v>
-      </c>
-      <c r="E31" s="14">
-        <v>44126</v>
-      </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
-        <v>5</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2">
-        <v>44126</v>
-      </c>
-      <c r="E32" s="14">
-        <v>44131</v>
-      </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28">
-        <v>6</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2">
-        <v>44126</v>
-      </c>
-      <c r="E33" s="14">
-        <v>44131</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
-        <v>7</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2">
-        <v>44126</v>
-      </c>
-      <c r="E34" s="14">
-        <v>44131</v>
-      </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="15"/>
+      <c r="D35" s="2">
+        <v>44148</v>
+      </c>
+      <c r="E35" s="14">
+        <v>44155</v>
+      </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="15"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28">
+      <c r="A37" s="28"/>
+      <c r="B37" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="15"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28">
         <v>1</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2">
-        <v>44138</v>
-      </c>
-      <c r="E37" s="14">
-        <v>44141</v>
-      </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="20" t="s">
-        <v>41</v>
+      <c r="B38" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="15"/>
+      <c r="D38" s="2">
+        <v>44155</v>
+      </c>
+      <c r="E38" s="14">
+        <v>44164</v>
+      </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="20" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="15"/>
       <c r="H39" s="6"/>
     </row>
@@ -1702,58 +1689,38 @@
       <c r="A40" s="28">
         <v>1</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>45</v>
+      <c r="B40" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2">
-        <v>44141</v>
+        <v>44156</v>
       </c>
       <c r="E40" s="14">
-        <v>44144</v>
+        <v>44157</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="15"/>
+      <c r="A41" s="29">
+        <v>2</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17">
+        <v>44157</v>
+      </c>
+      <c r="E41" s="18">
+        <v>44162</v>
+      </c>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28">
-        <v>1</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2">
-        <v>44144</v>
-      </c>
-      <c r="E42" s="14">
-        <v>44146</v>
-      </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29">
-        <v>2</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17">
-        <v>44147</v>
-      </c>
-      <c r="E43" s="18">
-        <v>44150</v>
-      </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1764,12 +1731,6 @@
     </row>
     <row r="46" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1779,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1797,20 +1758,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="A1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1822,10 +1783,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1837,10 +1798,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="19">
         <v>44089</v>
       </c>
@@ -1852,38 +1813,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>21</v>
+      <c r="B7" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="33">
         <v>1</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" s="33">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F7" s="33"/>
     </row>
@@ -1891,14 +1854,14 @@
       <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="33">
         <v>1</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="33">
         <v>2</v>
@@ -1909,17 +1872,17 @@
       <c r="A9" s="33">
         <v>3</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>24</v>
+      <c r="B9" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="33">
         <v>1</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E9" s="33">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F9" s="33"/>
     </row>
@@ -1927,17 +1890,17 @@
       <c r="A10" s="33">
         <v>4</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="33">
         <v>1</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="33"/>
     </row>
@@ -1945,17 +1908,17 @@
       <c r="A11" s="33">
         <v>5</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>27</v>
+      <c r="B11" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="33">
         <v>2</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" s="33">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F11" s="33"/>
     </row>
@@ -1963,14 +1926,14 @@
       <c r="A12" s="33">
         <v>6</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>28</v>
+      <c r="B12" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="33">
         <v>2</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E12" s="33">
         <v>8</v>
@@ -1981,14 +1944,14 @@
       <c r="A13" s="33">
         <v>7</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>29</v>
+      <c r="B13" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="33">
         <v>2</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E13" s="33">
         <v>8</v>
@@ -1999,17 +1962,17 @@
       <c r="A14" s="33">
         <v>8</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>15</v>
+      <c r="B14" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="33">
         <v>2</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14" s="33">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F14" s="33"/>
     </row>
@@ -2017,35 +1980,35 @@
       <c r="A15" s="33">
         <v>9</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>65</v>
+      <c r="B15" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="33">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="E15" s="37">
+        <v>12</v>
       </c>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>10</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>66</v>
+      <c r="B16" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" s="33"/>
     </row>
@@ -2053,35 +2016,35 @@
       <c r="A17" s="33">
         <v>11</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>33</v>
+      <c r="B17" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E17" s="33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
         <v>12</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>34</v>
+      <c r="B18" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" s="33"/>
     </row>
@@ -2089,53 +2052,53 @@
       <c r="A19" s="33">
         <v>13</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>35</v>
+      <c r="B19" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="33">
         <v>4</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E19" s="33">
         <v>6</v>
       </c>
       <c r="F19" s="33"/>
     </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>36</v>
+      <c r="B20" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="33">
         <v>4</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E20" s="33">
-        <v>16</v>
-      </c>
-      <c r="F20" s="33"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>15</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>37</v>
+      <c r="B21" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="33">
         <v>4</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E21" s="33">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F21" s="33"/>
     </row>
@@ -2143,119 +2106,74 @@
       <c r="A22" s="33">
         <v>16</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="47">
-        <v>4</v>
+      <c r="B22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="33">
+        <v>5</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="42">
-        <v>12</v>
-      </c>
-      <c r="F22" s="42"/>
+        <v>64</v>
+      </c>
+      <c r="E22" s="33">
+        <v>8</v>
+      </c>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>17</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>39</v>
+      <c r="B23" s="42" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
-        <v>21</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>18</v>
       </c>
       <c r="C24" s="33">
         <v>6</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24" s="33">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
-        <v>22</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="33">
-        <v>7</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>69</v>
-      </c>
+      <c r="A25" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="33">
-        <v>2</v>
+        <f>SUM(E8:E24)</f>
+        <v>178</v>
       </c>
       <c r="F25" s="33"/>
     </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
-        <v>23</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="33">
-        <v>7</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="33">
-        <v>12</v>
-      </c>
-      <c r="F26" s="33"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33">
-        <f>SUM(E7:E26)</f>
-        <v>178</v>
-      </c>
-      <c r="F27" s="33"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="35"/>
-    </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="35"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="37"/>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Project-Estimation.xlsx
+++ b/Project-Estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -344,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -559,21 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -631,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -679,12 +664,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -724,38 +703,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -769,6 +739,15 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,7 +1055,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1092,40 +1071,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.6">
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <f>SUM(Estimation!E8:E24)</f>
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1138,13 +1117,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="28" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
@@ -1156,7 +1135,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
@@ -1166,7 +1145,7 @@
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="17.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1161,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1198,23 +1177,23 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>44089</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="19">
-        <v>44164</v>
+      <c r="F4" s="17">
+        <v>44155</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1222,7 +1201,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1240,7 +1219,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1256,7 +1235,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1272,7 +1251,7 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1288,8 +1267,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1"/>
@@ -1298,8 +1277,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1"/>
@@ -1308,7 +1287,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1324,10 +1303,10 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>2</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="10"/>
@@ -1340,7 +1319,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="26">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1356,7 +1335,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1372,8 +1351,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1"/>
@@ -1382,16 +1361,16 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="47"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1402,11 +1381,11 @@
         <v>44117</v>
       </c>
       <c r="E18" s="14">
-        <v>44131</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1417,11 +1396,11 @@
         <v>44117</v>
       </c>
       <c r="E19" s="14">
-        <v>44131</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1432,11 +1411,11 @@
         <v>44117</v>
       </c>
       <c r="E20" s="14">
-        <v>44131</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1447,12 +1426,12 @@
         <v>44117</v>
       </c>
       <c r="E21" s="14">
-        <v>44131</v>
+        <v>44124</v>
       </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1463,12 +1442,12 @@
         <v>44117</v>
       </c>
       <c r="E22" s="14">
-        <v>44131</v>
+        <v>44124</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1479,13 +1458,13 @@
         <v>44117</v>
       </c>
       <c r="E23" s="14">
-        <v>44131</v>
+        <v>44124</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="1"/>
@@ -1494,8 +1473,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="1"/>
@@ -1504,7 +1483,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
+      <c r="A26" s="26">
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1512,32 +1491,32 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2">
+        <v>44125</v>
+      </c>
+      <c r="E26" s="14">
         <v>44132</v>
       </c>
-      <c r="E26" s="14">
-        <v>44140</v>
-      </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
+      <c r="A27" s="26">
         <v>2</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2">
+        <v>44125</v>
+      </c>
+      <c r="E27" s="14">
         <v>44132</v>
       </c>
-      <c r="E27" s="14">
-        <v>44140</v>
-      </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="1"/>
@@ -1546,66 +1525,66 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="47"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="42"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50">
+      <c r="A30" s="45">
         <v>1</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52">
+      <c r="C30" s="46"/>
+      <c r="D30" s="47">
+        <v>44133</v>
+      </c>
+      <c r="E30" s="48">
         <v>44140</v>
       </c>
-      <c r="E30" s="53">
-        <v>44147</v>
-      </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50">
+      <c r="A31" s="45">
         <v>2</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52">
+      <c r="C31" s="46"/>
+      <c r="D31" s="47">
+        <v>44133</v>
+      </c>
+      <c r="E31" s="48">
         <v>44140</v>
       </c>
-      <c r="E31" s="53">
-        <v>44147</v>
-      </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50">
+      <c r="A32" s="45">
         <v>4</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52">
+      <c r="C32" s="46"/>
+      <c r="D32" s="47">
+        <v>44133</v>
+      </c>
+      <c r="E32" s="48">
         <v>44140</v>
       </c>
-      <c r="E32" s="53">
-        <v>44147</v>
-      </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1"/>
@@ -1614,8 +1593,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="1"/>
@@ -1624,7 +1603,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28">
+      <c r="A35" s="26">
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1632,16 +1611,16 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2">
-        <v>44148</v>
+        <v>44140</v>
       </c>
       <c r="E35" s="14">
-        <v>44155</v>
+        <v>44147</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="1"/>
@@ -1650,8 +1629,8 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="1"/>
@@ -1660,7 +1639,7 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28">
+      <c r="A38" s="26">
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1668,52 +1647,52 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2">
+        <v>44148</v>
+      </c>
+      <c r="E38" s="14">
         <v>44155</v>
       </c>
-      <c r="E38" s="14">
-        <v>44164</v>
-      </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="15"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="14"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28">
+      <c r="A40" s="26">
         <v>1</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2">
-        <v>44156</v>
+        <v>44148</v>
       </c>
       <c r="E40" s="14">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29">
+      <c r="A41" s="27">
         <v>2</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="16"/>
-      <c r="D41" s="17">
-        <v>44157</v>
-      </c>
-      <c r="E41" s="18">
-        <v>44162</v>
+      <c r="D41" s="2">
+        <v>44148</v>
+      </c>
+      <c r="E41" s="14">
+        <v>44155</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -1742,40 +1721,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="81.5703125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="34" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="5.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="81.5703125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1783,14 +1762,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1798,382 +1777,382 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="19">
+      <c r="B4" s="51"/>
+      <c r="C4" s="17">
         <v>44089</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="19">
-        <v>44164</v>
+      <c r="F4" s="17">
+        <v>44155</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>1</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>2</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="31">
         <v>1</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="31">
         <v>2</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="31">
         <v>3</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="31">
         <v>1</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>36</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="31">
         <v>4</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="31">
         <v>1</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="31">
         <v>14</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="31">
         <v>5</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="31">
         <v>2</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="31">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="31">
         <v>6</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="31">
         <v>2</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="31">
         <v>8</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="31">
         <v>7</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>2</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>8</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="31">
         <v>8</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="31">
         <v>2</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="31">
         <v>16</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="31">
         <v>9</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="31">
         <v>2</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="35">
         <v>12</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="31">
         <v>10</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="31">
         <v>2</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>10</v>
       </c>
-      <c r="F16" s="33"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="31">
         <v>11</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="31">
         <v>3</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>8</v>
       </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="A18" s="31">
         <v>12</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="31">
         <v>3</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>10</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="31">
         <v>13</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="31">
         <v>4</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="31">
         <v>6</v>
       </c>
-      <c r="F19" s="33"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="31">
         <v>14</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="31">
         <v>4</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="31">
         <v>8</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="31">
         <v>15</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="31">
         <v>4</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="31">
         <v>6</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="31">
         <v>16</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="31">
         <v>5</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="31">
         <v>8</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="31">
         <v>17</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="31">
         <v>6</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="31">
         <v>2</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="31">
         <v>18</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="31">
         <v>6</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <v>12</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33">
+      <c r="B25" s="41"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31">
         <f>SUM(E8:E24)</f>
         <v>178</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
+      <c r="B32" s="33"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="35"/>
+      <c r="B33" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Project-Estimation.xlsx
+++ b/Project-Estimation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>PROJECT PLAN</t>
   </si>
@@ -258,13 +258,34 @@
   </si>
   <si>
     <t>Thiết kế giao diện cho trang web</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa đăng nhập/ đăng xuất</t>
+  </si>
+  <si>
+    <t>Thiết lập giới thiệu</t>
+  </si>
+  <si>
+    <t>Thiết lập blog</t>
+  </si>
+  <si>
+    <t>Thiết lập nội dung cho trang giới thiệu cửa hàng, bao gồm các thông tin cơ bản và thông tin để liên hệ</t>
+  </si>
+  <si>
+    <t>Thiết lập các nội dung của trang blog, bao gồm các tin tức về thú cưng cũng như các bài báo</t>
+  </si>
+  <si>
+    <t>Thiết lập tài khoản</t>
+  </si>
+  <si>
+    <t>Thiết lập thông tin và chức năng cho tài khoản cá nhân của khách hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +338,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -344,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -612,11 +640,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -677,9 +757,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,6 +826,31 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,7 +1157,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,40 +1173,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.6">
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="32">
-        <f>SUM(Estimation!E8:E24)</f>
-        <v>178</v>
+      <c r="D9" s="31">
+        <f>SUM(Estimation!E8:E27)</f>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1115,15 +1217,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="27" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
@@ -1135,7 +1237,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
@@ -1145,7 +1247,7 @@
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="17.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1279,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1295,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1201,7 +1303,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1219,7 +1321,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1235,7 +1337,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1251,7 +1353,7 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1267,7 +1369,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1379,7 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
@@ -1287,7 +1389,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1303,7 +1405,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -1319,7 +1421,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1335,7 +1437,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1351,7 +1453,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1361,16 +1463,16 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="42"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1385,7 +1487,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1400,7 +1502,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1415,7 +1517,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1431,7 +1533,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1447,7 +1549,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1463,7 +1565,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="18" t="s">
         <v>29</v>
       </c>
@@ -1473,9 +1575,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="18" t="s">
-        <v>67</v>
+      <c r="A25" s="25"/>
+      <c r="B25" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1483,14 +1585,14 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+      <c r="A26" s="25">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2">
+      <c r="B26" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="57">
         <v>44125</v>
       </c>
       <c r="E26" s="14">
@@ -1499,14 +1601,14 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+      <c r="A27" s="44">
         <v>2</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2">
+      <c r="B27" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="57">
         <v>44125</v>
       </c>
       <c r="E27" s="14">
@@ -1515,113 +1617,123 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="44">
+        <v>3</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="57">
+        <v>44125</v>
+      </c>
+      <c r="E28" s="14">
+        <v>44132</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44">
+        <v>4</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="57">
+        <v>44125</v>
+      </c>
+      <c r="E29" s="14">
+        <v>44132</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44">
+        <v>5</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="57">
+        <v>44125</v>
+      </c>
+      <c r="E30" s="14">
+        <v>44132</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="44">
+        <v>6</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="57">
+        <v>44125</v>
+      </c>
+      <c r="E31" s="14">
+        <v>44132</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="15"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="42"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45">
+      <c r="C32" s="58"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="15"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="41"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47">
+      <c r="B34" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="51"/>
+      <c r="D34" s="46">
         <v>44133</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E34" s="47">
         <v>44140</v>
       </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45">
+    </row>
+    <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47">
+      <c r="B35" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="46">
         <v>44133</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E35" s="47">
         <v>44140</v>
       </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45">
-        <v>4</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47">
-        <v>44133</v>
-      </c>
-      <c r="E32" s="48">
-        <v>44140</v>
-      </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="18" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53" t="s">
         <v>38</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="15"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="15"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2">
-        <v>44140</v>
-      </c>
-      <c r="E35" s="14">
-        <v>44147</v>
-      </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1629,9 +1741,9 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
@@ -1639,55 +1751,49 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
+      <c r="A38" s="25">
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2">
-        <v>44148</v>
+        <v>44140</v>
       </c>
       <c r="E38" s="14">
-        <v>44155</v>
+        <v>44147</v>
       </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="18" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="14"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="15"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+      <c r="A40" s="25"/>
+      <c r="B40" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="15"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
         <v>1</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2">
-        <v>44148</v>
-      </c>
-      <c r="E40" s="14">
-        <v>44155</v>
-      </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27">
-        <v>2</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="16"/>
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="2">
         <v>44148</v>
       </c>
@@ -1697,12 +1803,45 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="14"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
+        <v>1</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2">
+        <v>44148</v>
+      </c>
+      <c r="E43" s="14">
+        <v>44155</v>
+      </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
+        <v>2</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="2">
+        <v>44148</v>
+      </c>
+      <c r="E44" s="14">
+        <v>44155</v>
+      </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1710,6 +1849,15 @@
     </row>
     <row r="46" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="8:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1719,42 +1867,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="81.5703125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="32" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="5.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="95.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1762,14 +1910,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1777,14 +1925,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="17">
         <v>44089</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="17">
@@ -1792,367 +1940,421 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>1</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>2</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>2</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>1</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>2</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>3</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <v>36</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>4</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>1</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>14</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>5</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>2</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>12</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>6</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>2</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>8</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>7</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <v>8</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>8</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>2</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <v>16</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>9</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <v>2</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>12</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>10</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="30">
         <v>2</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <v>10</v>
       </c>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
         <v>11</v>
       </c>
       <c r="B17" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="30">
+        <v>3</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="30">
+        <v>12</v>
+      </c>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>12</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="30">
+        <v>3</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="30">
+        <v>6</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>13</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="30">
+        <v>3</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="30">
+        <v>12</v>
+      </c>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>14</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="30">
+        <v>3</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="30">
+        <v>14</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>15</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="30">
+        <v>3</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="30">
+        <v>10</v>
+      </c>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>16</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="30">
+        <v>3</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="30">
+        <v>4</v>
+      </c>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>17</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="31">
-        <v>3</v>
-      </c>
-      <c r="D17" s="31" t="s">
+      <c r="C23" s="30">
+        <v>4</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E23" s="30">
+        <v>6</v>
+      </c>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="30">
+        <v>18</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="30">
+        <v>4</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="30">
+        <v>6</v>
+      </c>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>19</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="30">
+        <v>5</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="30">
         <v>8</v>
       </c>
-      <c r="F17" s="31"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>20</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="30">
+        <v>6</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="30">
+        <v>2</v>
+      </c>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>21</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="30">
+        <v>6</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="30">
         <v>12</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="31">
-        <v>3</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="31">
-        <v>10</v>
-      </c>
-      <c r="F18" s="31"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>13</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="31">
-        <v>4</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="31">
-        <v>6</v>
-      </c>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>14</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="31">
-        <v>4</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="31">
-        <v>8</v>
-      </c>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>15</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="31">
-        <v>4</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="31">
-        <v>6</v>
-      </c>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>16</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="31">
-        <v>5</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="31">
-        <v>8</v>
-      </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>17</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="31">
-        <v>6</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="31">
-        <v>2</v>
-      </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>18</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="31">
-        <v>6</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="31">
-        <v>12</v>
-      </c>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31">
-        <f>SUM(E8:E24)</f>
-        <v>178</v>
-      </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30">
+        <f>SUM(E8:E27)</f>
+        <v>210</v>
+      </c>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="32"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Project-Estimation.xlsx
+++ b/Project-Estimation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>PROJECT PLAN</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Hoàn thành dự án</t>
   </si>
   <si>
-    <t>Deploy website lên host</t>
-  </si>
-  <si>
     <t>Làm báo cáo tổng kết dự án</t>
   </si>
   <si>
@@ -146,18 +143,9 @@
     <t>Sprint 5</t>
   </si>
   <si>
-    <t>Sprint 6</t>
-  </si>
-  <si>
     <t>Test Hệ Thống</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Bảo trì</t>
-  </si>
-  <si>
     <t>Bảo trì hệ thống</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
     <t>Chỉnh sửa giao diện sau khi thiết kế trước đó cảm thấy không phù hợp</t>
   </si>
   <si>
-    <t>Chỉnh sửa đăng nhập nếu như phiên bản trước đó chưa hoàn chỉnh</t>
-  </si>
-  <si>
     <t>Danh mục nơi có tất cả mọi thứ khách hàng muốn</t>
   </si>
   <si>
@@ -215,24 +200,15 @@
     <t>Chỉnh sửa giao diện</t>
   </si>
   <si>
-    <t>Chỉnh sửa Đăng nhập/ Đăng xuất</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Kiểm tra trang toàn bộ các chức năng của trang web</t>
   </si>
   <si>
-    <t>Đưa website lên host</t>
-  </si>
-  <si>
     <t>Làm báo cáo kết thúc dự án, trình bày sản phẩm cuối cùng</t>
   </si>
   <si>
-    <t>Chỉnh sửa</t>
-  </si>
-  <si>
     <t>Danh mục cho công ty đăng các hoạt động, tin tức, khuyến mãi</t>
   </si>
   <si>
@@ -260,9 +236,6 @@
     <t>Thiết kế giao diện cho trang web</t>
   </si>
   <si>
-    <t>Chỉnh sửa đăng nhập/ đăng xuất</t>
-  </si>
-  <si>
     <t>Thiết lập giới thiệu</t>
   </si>
   <si>
@@ -279,13 +252,22 @@
   </si>
   <si>
     <t>Thiết lập thông tin và chức năng cho tài khoản cá nhân của khách hàng</t>
+  </si>
+  <si>
+    <t>Test hệ thống</t>
+  </si>
+  <si>
+    <t>Quản trị trang web</t>
+  </si>
+  <si>
+    <t>Tạo các chức năng quản trị khách hành, quản trị đặt lịch, quản trị thú cưng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,13 +320,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -696,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -810,21 +785,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -833,10 +798,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -851,6 +812,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,36 +1148,36 @@
   <sheetData>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.6">
       <c r="E4" s="33" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9" s="31">
-        <f>SUM(Estimation!E8:E27)</f>
-        <v>210</v>
+        <f>SUM(Estimation!E8:E26)</f>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1217,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2">
@@ -1341,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2">
@@ -1357,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2">
@@ -1381,7 +1351,7 @@
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1393,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2">
@@ -1409,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="2">
@@ -1425,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2">
@@ -1441,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2">
@@ -1465,7 +1435,7 @@
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1476,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2">
@@ -1491,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2">
@@ -1506,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2">
@@ -1521,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2">
@@ -1537,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2">
@@ -1553,7 +1523,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2">
@@ -1567,7 +1537,7 @@
     <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1577,7 +1547,7 @@
     <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1589,10 +1559,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="57">
+        <v>69</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="51">
         <v>44125</v>
       </c>
       <c r="E26" s="14">
@@ -1605,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="57">
+        <v>26</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="51">
         <v>44125</v>
       </c>
       <c r="E27" s="14">
@@ -1621,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="57">
+        <v>27</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="51">
         <v>44125</v>
       </c>
       <c r="E28" s="14">
@@ -1637,10 +1607,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="57">
+        <v>70</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="51">
         <v>44125</v>
       </c>
       <c r="E29" s="14">
@@ -1653,10 +1623,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="57">
+        <v>73</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="51">
         <v>44125</v>
       </c>
       <c r="E30" s="14">
@@ -1671,8 +1641,8 @@
       <c r="B31" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="57">
+      <c r="C31" s="53"/>
+      <c r="D31" s="51">
         <v>44125</v>
       </c>
       <c r="E31" s="14">
@@ -1683,79 +1653,85 @@
     <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="52"/>
       <c r="D32" s="1"/>
       <c r="E32" s="15"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="50">
+        <v>1</v>
+      </c>
       <c r="B33" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="41"/>
-      <c r="H33" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="45">
+        <v>44133</v>
+      </c>
+      <c r="E33" s="46">
+        <v>44140</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56">
-        <v>1</v>
-      </c>
-      <c r="B34" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="46">
+      <c r="A34" s="50">
+        <v>2</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="45">
         <v>44133</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="46">
         <v>44140</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56">
-        <v>2</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="46">
-        <v>44133</v>
-      </c>
-      <c r="E35" s="47">
-        <v>44140</v>
-      </c>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="15"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
-      <c r="B36" s="53" t="s">
-        <v>38</v>
+      <c r="A36" s="25"/>
+      <c r="B36" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="15"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="18" t="s">
-        <v>41</v>
+      <c r="A37" s="25">
+        <v>2</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="15"/>
+      <c r="D37" s="2">
+        <v>44140</v>
+      </c>
+      <c r="E37" s="14">
+        <v>44147</v>
+      </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2">
@@ -1767,97 +1743,36 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="15"/>
+      <c r="A39" s="26">
+        <v>4</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="2">
+        <v>44140</v>
+      </c>
+      <c r="E39" s="14">
+        <v>44147</v>
+      </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="15"/>
-      <c r="H40" s="6"/>
-    </row>
+    <row r="40" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2">
-        <v>44148</v>
-      </c>
-      <c r="E41" s="14">
-        <v>44155</v>
-      </c>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="14"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
-        <v>1</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2">
-        <v>44148</v>
-      </c>
-      <c r="E43" s="14">
-        <v>44155</v>
-      </c>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="26">
-        <v>2</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="2">
-        <v>44148</v>
-      </c>
-      <c r="E44" s="14">
-        <v>44155</v>
-      </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="8:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1867,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1885,20 +1800,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="A1" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1910,10 +1825,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1925,10 +1840,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="17">
         <v>44089</v>
       </c>
@@ -1947,16 +1862,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1964,13 +1879,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="30">
         <v>1</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" s="30">
         <v>2</v>
@@ -1982,13 +1897,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="30">
         <v>1</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="30">
         <v>2</v>
@@ -2000,13 +1915,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="30">
         <v>1</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E9" s="30">
         <v>36</v>
@@ -2018,13 +1933,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="30">
         <v>1</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" s="30">
         <v>14</v>
@@ -2036,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="30">
         <v>2</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" s="30">
         <v>12</v>
@@ -2054,13 +1969,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="30">
         <v>2</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E12" s="30">
         <v>8</v>
@@ -2072,13 +1987,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="30">
         <v>2</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13" s="30">
         <v>8</v>
@@ -2090,13 +2005,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="30">
         <v>2</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E14" s="30">
         <v>16</v>
@@ -2108,13 +2023,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="30">
         <v>2</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E15" s="34">
         <v>12</v>
@@ -2126,13 +2041,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="30">
         <v>2</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E16" s="30">
         <v>10</v>
@@ -2144,13 +2059,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C17" s="30">
         <v>3</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E17" s="30">
         <v>12</v>
@@ -2162,13 +2077,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="30">
         <v>3</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18" s="30">
         <v>6</v>
@@ -2180,13 +2095,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="30">
         <v>3</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="30">
         <v>12</v>
@@ -2198,13 +2113,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C20" s="30">
         <v>3</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E20" s="30">
         <v>14</v>
@@ -2216,13 +2131,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C21" s="30">
         <v>3</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E21" s="30">
         <v>10</v>
@@ -2240,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E22" s="30">
         <v>4</v>
@@ -2252,31 +2167,31 @@
         <v>17</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C23" s="30">
         <v>4</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E23" s="30">
         <v>6</v>
       </c>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>18</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C24" s="30">
         <v>4</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E24" s="30">
         <v>6</v>
@@ -2288,73 +2203,55 @@
         <v>19</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="30">
         <v>5</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E25" s="30">
         <v>8</v>
       </c>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E26" s="30">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>21</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="30">
-        <v>6</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>66</v>
-      </c>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="30">
-        <v>12</v>
+        <f>SUM(E8:E26)</f>
+        <v>216</v>
       </c>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30">
-        <f>SUM(E8:E27)</f>
-        <v>210</v>
-      </c>
-      <c r="F28" s="30"/>
+    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
-    </row>
-    <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
